--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-document-with-sr-and-form.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-document-with-sr-and-form.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20326" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20326" uniqueCount="937">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T13:35:09+00:00</t>
+    <t>2025-05-22T12:28:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1080,10 +1080,6 @@
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
   </si>
   <si>
@@ -1203,10 +1199,6 @@
     <t>The CH Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -1322,10 +1314,6 @@
     <t>The CH Core Practitioner is based upon the core FHIR Practitioner Resource and designed to meet the applicable practitioner demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -1550,10 +1538,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -1659,11 +1643,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -2122,10 +2106,6 @@
     <t>Sets minimum expectations for questionnaire support for SDC-conformant systems, regardless of which SDC capabilities they're making use of.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}que-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}que-2:The link ids for groups and questions must be unique within the questionnaire {descendants().linkId.isDistinct()}</t>
-  </si>
-  <si>
     <t>Observation[moodCode=DEF]</t>
   </si>
   <si>
@@ -2359,10 +2339,6 @@
   </si>
   <si>
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
   </si>
   <si>
     <t>ORC</t>
@@ -2716,10 +2692,6 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
-    <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
-app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Act[@moodCode &lt;= 'INT']</t>
   </si>
   <si>
@@ -2829,7 +2801,7 @@
     <t>CH ORF Coverage</t>
   </si>
   <si>
-    <t>Financial instrument which may be used to reimburse or pay for health care products and services. Includes both insurance and self-payment.</t>
+    <t>This is basic constraint on Coverage for use in CH Core resources.</t>
   </si>
   <si>
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.</t>
@@ -3267,17 +3239,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3286,26 +3258,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6065,7 +6037,7 @@
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -10247,7 +10219,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -10333,7 +10305,7 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -10447,16 +10419,16 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -10464,7 +10436,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>255</v>
@@ -10576,7 +10548,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>259</v>
@@ -10688,7 +10660,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>260</v>
@@ -10802,7 +10774,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>261</v>
@@ -10918,7 +10890,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>262</v>
@@ -11032,7 +11004,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>268</v>
@@ -11146,7 +11118,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>273</v>
@@ -11258,7 +11230,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>277</v>
@@ -11370,7 +11342,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>278</v>
@@ -11484,7 +11456,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>279</v>
@@ -11600,7 +11572,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>280</v>
@@ -11712,7 +11684,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>285</v>
@@ -11826,7 +11798,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>289</v>
@@ -11938,7 +11910,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>292</v>
@@ -12050,7 +12022,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>294</v>
@@ -12162,7 +12134,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>297</v>
@@ -12274,7 +12246,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>300</v>
@@ -12386,7 +12358,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>304</v>
@@ -12498,7 +12470,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>305</v>
@@ -12612,7 +12584,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>306</v>
@@ -12728,7 +12700,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>307</v>
@@ -12840,7 +12812,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>310</v>
@@ -12952,7 +12924,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>313</v>
@@ -13066,7 +13038,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>317</v>
@@ -13180,7 +13152,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>321</v>
@@ -13294,13 +13266,13 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>79</v>
@@ -13408,7 +13380,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>240</v>
@@ -13520,7 +13492,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>241</v>
@@ -13634,7 +13606,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>242</v>
@@ -13750,7 +13722,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>243</v>
@@ -13862,7 +13834,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>246</v>
@@ -13873,7 +13845,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>89</v>
@@ -13959,7 +13931,7 @@
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13976,14 +13948,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -14002,13 +13974,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -14071,16 +14043,16 @@
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -14088,7 +14060,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>255</v>
@@ -14200,7 +14172,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>259</v>
@@ -14312,7 +14284,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>260</v>
@@ -14426,7 +14398,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>261</v>
@@ -14542,7 +14514,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>262</v>
@@ -14656,7 +14628,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>268</v>
@@ -14770,7 +14742,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>273</v>
@@ -14882,7 +14854,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>277</v>
@@ -14994,7 +14966,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>278</v>
@@ -15108,7 +15080,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>279</v>
@@ -15224,7 +15196,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>280</v>
@@ -15336,7 +15308,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>285</v>
@@ -15450,7 +15422,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>289</v>
@@ -15562,7 +15534,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>292</v>
@@ -15674,7 +15646,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>294</v>
@@ -15786,7 +15758,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>297</v>
@@ -15898,7 +15870,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>300</v>
@@ -16010,7 +15982,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>304</v>
@@ -16122,7 +16094,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>305</v>
@@ -16236,7 +16208,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>306</v>
@@ -16352,7 +16324,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>307</v>
@@ -16464,7 +16436,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>310</v>
@@ -16576,7 +16548,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>313</v>
@@ -16690,7 +16662,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>317</v>
@@ -16804,7 +16776,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>321</v>
@@ -16918,13 +16890,13 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>79</v>
@@ -17032,7 +17004,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>240</v>
@@ -17144,7 +17116,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>241</v>
@@ -17258,7 +17230,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>242</v>
@@ -17374,7 +17346,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>243</v>
@@ -17486,7 +17458,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>246</v>
@@ -17497,7 +17469,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>89</v>
@@ -17583,7 +17555,7 @@
         <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>79</v>
@@ -17600,7 +17572,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>251</v>
@@ -17626,13 +17598,13 @@
         <v>79</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17695,13 +17667,13 @@
         <v>79</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>79</v>
@@ -17712,7 +17684,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>255</v>
@@ -17824,7 +17796,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>259</v>
@@ -17936,7 +17908,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>260</v>
@@ -18050,7 +18022,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>261</v>
@@ -18166,7 +18138,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>262</v>
@@ -18280,7 +18252,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>268</v>
@@ -18394,7 +18366,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>273</v>
@@ -18506,7 +18478,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>277</v>
@@ -18618,7 +18590,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>278</v>
@@ -18732,7 +18704,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>279</v>
@@ -18848,7 +18820,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>280</v>
@@ -18960,7 +18932,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>285</v>
@@ -19074,7 +19046,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>289</v>
@@ -19186,7 +19158,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>292</v>
@@ -19298,7 +19270,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>294</v>
@@ -19410,7 +19382,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>297</v>
@@ -19522,7 +19494,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>300</v>
@@ -19634,7 +19606,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>304</v>
@@ -19746,7 +19718,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>305</v>
@@ -19860,7 +19832,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>306</v>
@@ -19976,7 +19948,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>307</v>
@@ -20088,7 +20060,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>310</v>
@@ -20200,7 +20172,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>313</v>
@@ -20314,7 +20286,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>317</v>
@@ -20428,7 +20400,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>321</v>
@@ -20542,13 +20514,13 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -20656,7 +20628,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>240</v>
@@ -20768,7 +20740,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>241</v>
@@ -20882,7 +20854,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>242</v>
@@ -20998,7 +20970,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>243</v>
@@ -21110,7 +21082,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>246</v>
@@ -21121,7 +21093,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>89</v>
@@ -21207,7 +21179,7 @@
         <v>79</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>79</v>
@@ -21224,7 +21196,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>251</v>
@@ -21250,13 +21222,13 @@
         <v>79</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21319,13 +21291,13 @@
         <v>79</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>79</v>
@@ -21336,7 +21308,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>255</v>
@@ -21448,7 +21420,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>259</v>
@@ -21560,7 +21532,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>260</v>
@@ -21674,7 +21646,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>261</v>
@@ -21790,7 +21762,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>262</v>
@@ -21904,7 +21876,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>268</v>
@@ -22018,7 +21990,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>273</v>
@@ -22130,7 +22102,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>277</v>
@@ -22242,7 +22214,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>278</v>
@@ -22356,7 +22328,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>279</v>
@@ -22472,7 +22444,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>280</v>
@@ -22584,7 +22556,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>285</v>
@@ -22698,7 +22670,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>289</v>
@@ -22810,7 +22782,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>292</v>
@@ -22922,7 +22894,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>294</v>
@@ -23034,7 +23006,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>297</v>
@@ -23146,7 +23118,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>300</v>
@@ -23258,7 +23230,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>304</v>
@@ -23370,7 +23342,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>305</v>
@@ -23484,7 +23456,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>306</v>
@@ -23600,7 +23572,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>307</v>
@@ -23712,7 +23684,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>310</v>
@@ -23824,7 +23796,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>313</v>
@@ -23938,7 +23910,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>317</v>
@@ -24052,7 +24024,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>321</v>
@@ -24166,13 +24138,13 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>79</v>
@@ -24280,7 +24252,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>240</v>
@@ -24392,7 +24364,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>241</v>
@@ -24506,7 +24478,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>242</v>
@@ -24622,7 +24594,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>243</v>
@@ -24734,7 +24706,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>246</v>
@@ -24745,7 +24717,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>89</v>
@@ -24831,7 +24803,7 @@
         <v>79</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>79</v>
@@ -24848,7 +24820,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>251</v>
@@ -24874,13 +24846,13 @@
         <v>79</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -24943,13 +24915,13 @@
         <v>79</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>79</v>
@@ -24960,7 +24932,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>255</v>
@@ -25072,7 +25044,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>259</v>
@@ -25184,7 +25156,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>260</v>
@@ -25298,7 +25270,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>261</v>
@@ -25414,7 +25386,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>262</v>
@@ -25528,7 +25500,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>268</v>
@@ -25642,7 +25614,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>273</v>
@@ -25754,7 +25726,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>277</v>
@@ -25866,7 +25838,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>278</v>
@@ -25980,7 +25952,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>279</v>
@@ -26096,7 +26068,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>280</v>
@@ -26208,7 +26180,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>285</v>
@@ -26322,7 +26294,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>289</v>
@@ -26434,7 +26406,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>292</v>
@@ -26546,7 +26518,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>294</v>
@@ -26658,7 +26630,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>297</v>
@@ -26770,7 +26742,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>300</v>
@@ -26882,7 +26854,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>304</v>
@@ -26994,7 +26966,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>305</v>
@@ -27108,7 +27080,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>306</v>
@@ -27224,7 +27196,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>307</v>
@@ -27336,7 +27308,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>310</v>
@@ -27448,7 +27420,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>313</v>
@@ -27562,7 +27534,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>317</v>
@@ -27676,7 +27648,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>321</v>
@@ -27790,13 +27762,13 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>79</v>
@@ -27904,7 +27876,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>240</v>
@@ -28016,7 +27988,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>241</v>
@@ -28130,7 +28102,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>242</v>
@@ -28246,7 +28218,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>243</v>
@@ -28358,7 +28330,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>246</v>
@@ -28369,7 +28341,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>89</v>
@@ -28455,7 +28427,7 @@
         <v>79</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>79</v>
@@ -28472,7 +28444,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>251</v>
@@ -28498,13 +28470,13 @@
         <v>79</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -28567,13 +28539,13 @@
         <v>79</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>79</v>
@@ -28584,7 +28556,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>255</v>
@@ -28696,7 +28668,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>259</v>
@@ -28808,7 +28780,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>260</v>
@@ -28922,7 +28894,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>261</v>
@@ -29038,7 +29010,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>262</v>
@@ -29152,7 +29124,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>268</v>
@@ -29266,7 +29238,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>273</v>
@@ -29378,7 +29350,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>277</v>
@@ -29490,7 +29462,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>278</v>
@@ -29604,7 +29576,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>279</v>
@@ -29720,7 +29692,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>280</v>
@@ -29832,7 +29804,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>285</v>
@@ -29946,7 +29918,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>289</v>
@@ -30058,7 +30030,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>292</v>
@@ -30170,7 +30142,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>294</v>
@@ -30282,7 +30254,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>297</v>
@@ -30394,7 +30366,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>300</v>
@@ -30506,7 +30478,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>304</v>
@@ -30618,7 +30590,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>305</v>
@@ -30732,7 +30704,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>306</v>
@@ -30848,7 +30820,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>307</v>
@@ -30960,7 +30932,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>310</v>
@@ -31072,7 +31044,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>313</v>
@@ -31186,7 +31158,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>317</v>
@@ -31300,7 +31272,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>321</v>
@@ -31414,13 +31386,13 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D249" t="s" s="2">
         <v>79</v>
@@ -31528,7 +31500,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>240</v>
@@ -31640,7 +31612,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>241</v>
@@ -31754,7 +31726,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>242</v>
@@ -31870,7 +31842,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>243</v>
@@ -31982,7 +31954,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>246</v>
@@ -31993,7 +31965,7 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G254" t="s" s="2">
         <v>89</v>
@@ -32079,7 +32051,7 @@
         <v>79</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>79</v>
@@ -32096,7 +32068,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>251</v>
@@ -32122,13 +32094,13 @@
         <v>79</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -32191,13 +32163,13 @@
         <v>79</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK255" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AM255" t="s" s="2">
         <v>79</v>
@@ -32208,7 +32180,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>255</v>
@@ -32320,7 +32292,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>259</v>
@@ -32432,7 +32404,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>260</v>
@@ -32546,7 +32518,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>261</v>
@@ -32662,7 +32634,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>262</v>
@@ -32776,7 +32748,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>268</v>
@@ -32890,7 +32862,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>273</v>
@@ -33002,7 +32974,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>277</v>
@@ -33114,7 +33086,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>278</v>
@@ -33228,7 +33200,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>279</v>
@@ -33344,7 +33316,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>280</v>
@@ -33456,7 +33428,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>285</v>
@@ -33570,7 +33542,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>289</v>
@@ -33682,7 +33654,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>292</v>
@@ -33794,7 +33766,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>294</v>
@@ -33906,7 +33878,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>297</v>
@@ -34018,7 +33990,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>300</v>
@@ -34130,7 +34102,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>304</v>
@@ -34242,7 +34214,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>305</v>
@@ -34356,7 +34328,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>306</v>
@@ -34472,7 +34444,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>307</v>
@@ -34584,7 +34556,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>310</v>
@@ -34696,7 +34668,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>313</v>
@@ -34810,7 +34782,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>317</v>
@@ -34924,7 +34896,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>321</v>
@@ -35038,13 +35010,13 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>79</v>
@@ -35152,7 +35124,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>240</v>
@@ -35264,7 +35236,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>241</v>
@@ -35378,7 +35350,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>242</v>
@@ -35494,7 +35466,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>243</v>
@@ -35606,7 +35578,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>246</v>
@@ -35617,7 +35589,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>89</v>
@@ -35703,7 +35675,7 @@
         <v>79</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>79</v>
@@ -35720,14 +35692,14 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
@@ -35746,13 +35718,13 @@
         <v>79</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -35815,13 +35787,13 @@
         <v>79</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK287" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>79</v>
@@ -35832,7 +35804,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>255</v>
@@ -35944,7 +35916,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>259</v>
@@ -36056,7 +36028,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>260</v>
@@ -36170,7 +36142,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>261</v>
@@ -36286,7 +36258,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>262</v>
@@ -36400,7 +36372,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>268</v>
@@ -36514,7 +36486,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>273</v>
@@ -36626,7 +36598,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>277</v>
@@ -36738,7 +36710,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>278</v>
@@ -36852,7 +36824,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>279</v>
@@ -36968,7 +36940,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>280</v>
@@ -37080,7 +37052,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>285</v>
@@ -37194,7 +37166,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>289</v>
@@ -37306,7 +37278,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>292</v>
@@ -37418,7 +37390,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>294</v>
@@ -37530,7 +37502,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>297</v>
@@ -37642,7 +37614,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>300</v>
@@ -37754,7 +37726,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>304</v>
@@ -37866,7 +37838,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>305</v>
@@ -37980,7 +37952,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>306</v>
@@ -38096,7 +38068,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>307</v>
@@ -38208,7 +38180,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>310</v>
@@ -38320,7 +38292,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>313</v>
@@ -38434,7 +38406,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>317</v>
@@ -38548,7 +38520,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>321</v>
@@ -38662,13 +38634,13 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>79</v>
@@ -38776,7 +38748,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>240</v>
@@ -38888,7 +38860,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>241</v>
@@ -39002,7 +38974,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>242</v>
@@ -39118,7 +39090,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>243</v>
@@ -39230,7 +39202,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>246</v>
@@ -39241,7 +39213,7 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>89</v>
@@ -39327,7 +39299,7 @@
         <v>79</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AK318" t="s" s="2">
         <v>79</v>
@@ -39344,7 +39316,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>251</v>
@@ -39370,13 +39342,13 @@
         <v>79</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
@@ -39439,13 +39411,13 @@
         <v>79</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK319" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>79</v>
@@ -39456,7 +39428,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>255</v>
@@ -39568,7 +39540,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>259</v>
@@ -39680,7 +39652,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>260</v>
@@ -39794,7 +39766,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>261</v>
@@ -39910,7 +39882,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>262</v>
@@ -40024,7 +39996,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>268</v>
@@ -40138,7 +40110,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>273</v>
@@ -40250,7 +40222,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>277</v>
@@ -40362,7 +40334,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>278</v>
@@ -40476,7 +40448,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>279</v>
@@ -40592,7 +40564,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>280</v>
@@ -40704,7 +40676,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>285</v>
@@ -40818,7 +40790,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>289</v>
@@ -40930,7 +40902,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>292</v>
@@ -41042,7 +41014,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>294</v>
@@ -41154,7 +41126,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>297</v>
@@ -41266,7 +41238,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>300</v>
@@ -41378,7 +41350,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>304</v>
@@ -41490,7 +41462,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>305</v>
@@ -41604,7 +41576,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>306</v>
@@ -41720,7 +41692,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>307</v>
@@ -41832,7 +41804,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>310</v>
@@ -41944,7 +41916,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>313</v>
@@ -42058,7 +42030,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>317</v>
@@ -42172,7 +42144,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>321</v>
@@ -42286,13 +42258,13 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D345" t="s" s="2">
         <v>79</v>
@@ -42400,7 +42372,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>240</v>
@@ -42512,7 +42484,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>241</v>
@@ -42626,7 +42598,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>242</v>
@@ -42742,7 +42714,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>243</v>
@@ -42854,7 +42826,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>246</v>
@@ -42968,14 +42940,14 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E351" s="2"/>
       <c r="F351" t="s" s="2">
@@ -42994,13 +42966,13 @@
         <v>79</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
@@ -43063,13 +43035,13 @@
         <v>79</v>
       </c>
       <c r="AJ351" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AK351" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL351" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="AM351" t="s" s="2">
         <v>79</v>
@@ -43080,7 +43052,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>255</v>
@@ -43192,7 +43164,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>259</v>
@@ -43304,7 +43276,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>260</v>
@@ -43418,7 +43390,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>261</v>
@@ -43534,7 +43506,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>262</v>
@@ -43648,7 +43620,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>268</v>
@@ -43762,7 +43734,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>273</v>
@@ -43874,7 +43846,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>277</v>
@@ -43986,7 +43958,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>278</v>
@@ -44100,7 +44072,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>279</v>
@@ -44216,7 +44188,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>280</v>
@@ -44328,7 +44300,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>285</v>
@@ -44442,7 +44414,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>289</v>
@@ -44554,7 +44526,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>292</v>
@@ -44666,7 +44638,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>294</v>
@@ -44778,7 +44750,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>297</v>
@@ -44890,7 +44862,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>300</v>
@@ -45002,7 +44974,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>304</v>
@@ -45114,7 +45086,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>305</v>
@@ -45228,7 +45200,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>306</v>
@@ -45344,7 +45316,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>307</v>
@@ -45456,7 +45428,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>310</v>
@@ -45568,7 +45540,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>313</v>
@@ -45682,7 +45654,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>317</v>
@@ -45796,7 +45768,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>321</v>
@@ -45910,13 +45882,13 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D377" t="s" s="2">
         <v>79</v>
@@ -46024,7 +45996,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>240</v>
@@ -46136,7 +46108,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>241</v>
@@ -46250,7 +46222,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>242</v>
@@ -46366,7 +46338,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>243</v>
@@ -46478,7 +46450,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>246</v>
@@ -46592,14 +46564,14 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" t="s" s="2">
@@ -46618,16 +46590,16 @@
         <v>79</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="O383" s="2"/>
       <c r="P383" t="s" s="2">
@@ -46689,13 +46661,13 @@
         <v>79</v>
       </c>
       <c r="AJ383" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK383" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL383" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="AM383" t="s" s="2">
         <v>79</v>
@@ -46706,7 +46678,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>255</v>
@@ -46818,7 +46790,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>259</v>
@@ -46930,7 +46902,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>260</v>
@@ -47044,7 +47016,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>261</v>
@@ -47160,7 +47132,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>262</v>
@@ -47274,7 +47246,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>268</v>
@@ -47388,7 +47360,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>273</v>
@@ -47500,7 +47472,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>277</v>
@@ -47612,7 +47584,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>278</v>
@@ -47726,7 +47698,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>279</v>
@@ -47842,7 +47814,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>280</v>
@@ -47954,7 +47926,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>285</v>
@@ -48068,7 +48040,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>289</v>
@@ -48180,7 +48152,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>292</v>
@@ -48292,7 +48264,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>294</v>
@@ -48404,7 +48376,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>297</v>
@@ -48516,7 +48488,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>300</v>
@@ -48628,7 +48600,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>304</v>
@@ -48740,7 +48712,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>305</v>
@@ -48854,7 +48826,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>306</v>
@@ -48970,7 +48942,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>307</v>
@@ -49082,7 +49054,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>310</v>
@@ -49194,7 +49166,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>313</v>
@@ -49308,7 +49280,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>317</v>
@@ -49422,7 +49394,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>321</v>
@@ -49536,13 +49508,13 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D409" t="s" s="2">
         <v>79</v>
@@ -49650,7 +49622,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>240</v>
@@ -49762,7 +49734,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>241</v>
@@ -49876,7 +49848,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>242</v>
@@ -49992,7 +49964,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>243</v>
@@ -50104,7 +50076,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>246</v>
@@ -50218,14 +50190,14 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E415" s="2"/>
       <c r="F415" t="s" s="2">
@@ -50244,13 +50216,13 @@
         <v>79</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
@@ -50313,13 +50285,13 @@
         <v>79</v>
       </c>
       <c r="AJ415" t="s" s="2">
-        <v>758</v>
+        <v>79</v>
       </c>
       <c r="AK415" t="s" s="2">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="AL415" t="s" s="2">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="AM415" t="s" s="2">
         <v>79</v>
@@ -50330,7 +50302,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>255</v>
@@ -50442,7 +50414,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>259</v>
@@ -50554,7 +50526,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>260</v>
@@ -50668,7 +50640,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>261</v>
@@ -50784,7 +50756,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>262</v>
@@ -50898,7 +50870,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>268</v>
@@ -51012,7 +50984,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>273</v>
@@ -51124,7 +51096,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>277</v>
@@ -51236,7 +51208,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>278</v>
@@ -51350,7 +51322,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>279</v>
@@ -51466,7 +51438,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>280</v>
@@ -51578,7 +51550,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>285</v>
@@ -51692,7 +51664,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>289</v>
@@ -51804,7 +51776,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>292</v>
@@ -51916,7 +51888,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>294</v>
@@ -52028,7 +52000,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>297</v>
@@ -52140,7 +52112,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>300</v>
@@ -52252,7 +52224,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>304</v>
@@ -52364,7 +52336,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>305</v>
@@ -52478,7 +52450,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>306</v>
@@ -52594,7 +52566,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>307</v>
@@ -52706,7 +52678,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>310</v>
@@ -52818,7 +52790,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>313</v>
@@ -52932,7 +52904,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>317</v>
@@ -53046,7 +53018,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>321</v>
@@ -53160,13 +53132,13 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D441" t="s" s="2">
         <v>79</v>
@@ -53274,7 +53246,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>240</v>
@@ -53386,7 +53358,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>241</v>
@@ -53500,7 +53472,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>242</v>
@@ -53616,7 +53588,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>243</v>
@@ -53728,7 +53700,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>246</v>
@@ -53842,7 +53814,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>251</v>
@@ -53868,16 +53840,16 @@
         <v>79</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="O447" s="2"/>
       <c r="P447" t="s" s="2">
@@ -53939,16 +53911,16 @@
         <v>79</v>
       </c>
       <c r="AJ447" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK447" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL447" t="s" s="2">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="AM447" t="s" s="2">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="AN447" t="s" s="2">
         <v>79</v>
@@ -53956,7 +53928,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>255</v>
@@ -54068,7 +54040,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>259</v>
@@ -54180,7 +54152,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>260</v>
@@ -54294,7 +54266,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>261</v>
@@ -54410,7 +54382,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>262</v>
@@ -54524,7 +54496,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>268</v>
@@ -54638,7 +54610,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>273</v>
@@ -54750,7 +54722,7 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>277</v>
@@ -54862,7 +54834,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>278</v>
@@ -54976,7 +54948,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>279</v>
@@ -55092,7 +55064,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>280</v>
@@ -55204,7 +55176,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>285</v>
@@ -55318,7 +55290,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>289</v>
@@ -55430,7 +55402,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>292</v>
@@ -55542,7 +55514,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>294</v>
@@ -55654,7 +55626,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>297</v>
@@ -55766,7 +55738,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>300</v>
@@ -55878,7 +55850,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>304</v>
@@ -55990,7 +55962,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>305</v>
@@ -56104,7 +56076,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>306</v>
@@ -56220,7 +56192,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>307</v>
@@ -56332,7 +56304,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>310</v>
@@ -56444,7 +56416,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>313</v>
@@ -56558,7 +56530,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>317</v>
@@ -56672,7 +56644,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>321</v>
@@ -56786,13 +56758,13 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D473" t="s" s="2">
         <v>79</v>
@@ -56900,7 +56872,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>240</v>
@@ -57012,7 +56984,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>241</v>
@@ -57126,7 +57098,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>242</v>
@@ -57242,7 +57214,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>243</v>
@@ -57354,7 +57326,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>246</v>
@@ -57468,7 +57440,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>251</v>
@@ -57494,16 +57466,16 @@
         <v>79</v>
       </c>
       <c r="K479" t="s" s="2">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="L479" t="s" s="2">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="O479" s="2"/>
       <c r="P479" t="s" s="2">
@@ -57571,7 +57543,7 @@
         <v>79</v>
       </c>
       <c r="AL479" t="s" s="2">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="AM479" t="s" s="2">
         <v>79</v>
@@ -57582,7 +57554,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>255</v>
@@ -57694,7 +57666,7 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>259</v>
@@ -57806,7 +57778,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>260</v>
@@ -57920,7 +57892,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>261</v>
@@ -58036,7 +58008,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>262</v>
@@ -58150,7 +58122,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>268</v>
@@ -58264,7 +58236,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>273</v>
@@ -58376,7 +58348,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>277</v>
@@ -58488,7 +58460,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>278</v>
@@ -58602,7 +58574,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>279</v>
@@ -58718,7 +58690,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>280</v>
@@ -58830,7 +58802,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>285</v>
@@ -58944,7 +58916,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>289</v>
@@ -59056,7 +59028,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>292</v>
@@ -59168,7 +59140,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>294</v>
@@ -59280,7 +59252,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>297</v>
@@ -59392,7 +59364,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>300</v>
@@ -59504,7 +59476,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>304</v>
@@ -59616,7 +59588,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>305</v>
@@ -59730,7 +59702,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>306</v>
@@ -59846,7 +59818,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>307</v>
@@ -59958,7 +59930,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>310</v>
@@ -60070,7 +60042,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>313</v>
@@ -60184,7 +60156,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>317</v>
@@ -60298,7 +60270,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>321</v>
@@ -60412,13 +60384,13 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D505" t="s" s="2">
         <v>79</v>
@@ -60526,7 +60498,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>240</v>
@@ -60638,7 +60610,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>241</v>
@@ -60752,7 +60724,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>242</v>
@@ -60868,7 +60840,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>243</v>
@@ -60980,7 +60952,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>246</v>
@@ -61094,7 +61066,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>251</v>
@@ -61120,13 +61092,13 @@
         <v>79</v>
       </c>
       <c r="K511" t="s" s="2">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="L511" t="s" s="2">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="M511" t="s" s="2">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="N511" s="2"/>
       <c r="O511" s="2"/>
@@ -61189,13 +61161,13 @@
         <v>79</v>
       </c>
       <c r="AJ511" t="s" s="2">
-        <v>874</v>
+        <v>79</v>
       </c>
       <c r="AK511" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL511" t="s" s="2">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="AM511" t="s" s="2">
         <v>79</v>
@@ -61206,7 +61178,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>255</v>
@@ -61318,7 +61290,7 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>259</v>
@@ -61430,7 +61402,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>260</v>
@@ -61544,7 +61516,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>261</v>
@@ -61660,7 +61632,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>262</v>
@@ -61774,7 +61746,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>268</v>
@@ -61888,7 +61860,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>273</v>
@@ -62000,7 +61972,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>277</v>
@@ -62112,7 +62084,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>278</v>
@@ -62226,7 +62198,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>279</v>
@@ -62342,7 +62314,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>280</v>
@@ -62454,7 +62426,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>285</v>
@@ -62568,7 +62540,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>289</v>
@@ -62680,7 +62652,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>292</v>
@@ -62792,7 +62764,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>294</v>
@@ -62904,7 +62876,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>297</v>
@@ -63016,7 +62988,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>300</v>
@@ -63128,7 +63100,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>304</v>
@@ -63240,7 +63212,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>305</v>
@@ -63354,7 +63326,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>306</v>
@@ -63470,7 +63442,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>307</v>
@@ -63582,7 +63554,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>310</v>
@@ -63694,7 +63666,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>313</v>
@@ -63808,7 +63780,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>317</v>
@@ -63922,7 +63894,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>321</v>
@@ -64036,13 +64008,13 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D537" t="s" s="2">
         <v>79</v>
@@ -64150,7 +64122,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>240</v>
@@ -64262,7 +64234,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>241</v>
@@ -64376,7 +64348,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>242</v>
@@ -64492,7 +64464,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>243</v>
@@ -64604,7 +64576,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>246</v>
@@ -64718,7 +64690,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>251</v>
@@ -64744,16 +64716,16 @@
         <v>79</v>
       </c>
       <c r="K543" t="s" s="2">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" t="s" s="2">
@@ -64815,13 +64787,13 @@
         <v>79</v>
       </c>
       <c r="AJ543" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK543" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL543" t="s" s="2">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="AM543" t="s" s="2">
         <v>79</v>
@@ -64832,7 +64804,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>255</v>
@@ -64944,7 +64916,7 @@
     </row>
     <row r="545" hidden="true">
       <c r="A545" t="s" s="2">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>259</v>
@@ -65056,7 +65028,7 @@
     </row>
     <row r="546" hidden="true">
       <c r="A546" t="s" s="2">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>260</v>
@@ -65170,7 +65142,7 @@
     </row>
     <row r="547" hidden="true">
       <c r="A547" t="s" s="2">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>261</v>
@@ -65286,7 +65258,7 @@
     </row>
     <row r="548" hidden="true">
       <c r="A548" t="s" s="2">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>262</v>
@@ -65400,7 +65372,7 @@
     </row>
     <row r="549" hidden="true">
       <c r="A549" t="s" s="2">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>268</v>
@@ -65514,7 +65486,7 @@
     </row>
     <row r="550" hidden="true">
       <c r="A550" t="s" s="2">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>273</v>
@@ -65626,7 +65598,7 @@
     </row>
     <row r="551" hidden="true">
       <c r="A551" t="s" s="2">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>277</v>
@@ -65738,7 +65710,7 @@
     </row>
     <row r="552" hidden="true">
       <c r="A552" t="s" s="2">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>278</v>
@@ -65852,7 +65824,7 @@
     </row>
     <row r="553" hidden="true">
       <c r="A553" t="s" s="2">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>279</v>
@@ -65968,7 +65940,7 @@
     </row>
     <row r="554" hidden="true">
       <c r="A554" t="s" s="2">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>280</v>
@@ -66080,7 +66052,7 @@
     </row>
     <row r="555" hidden="true">
       <c r="A555" t="s" s="2">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>285</v>
@@ -66194,7 +66166,7 @@
     </row>
     <row r="556" hidden="true">
       <c r="A556" t="s" s="2">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>289</v>
@@ -66306,7 +66278,7 @@
     </row>
     <row r="557" hidden="true">
       <c r="A557" t="s" s="2">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>292</v>
@@ -66418,7 +66390,7 @@
     </row>
     <row r="558" hidden="true">
       <c r="A558" t="s" s="2">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>294</v>
@@ -66530,7 +66502,7 @@
     </row>
     <row r="559" hidden="true">
       <c r="A559" t="s" s="2">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>297</v>
@@ -66642,7 +66614,7 @@
     </row>
     <row r="560" hidden="true">
       <c r="A560" t="s" s="2">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>300</v>
@@ -66754,7 +66726,7 @@
     </row>
     <row r="561" hidden="true">
       <c r="A561" t="s" s="2">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>304</v>
@@ -66866,7 +66838,7 @@
     </row>
     <row r="562" hidden="true">
       <c r="A562" t="s" s="2">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>305</v>
@@ -66980,7 +66952,7 @@
     </row>
     <row r="563" hidden="true">
       <c r="A563" t="s" s="2">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>306</v>
@@ -67096,7 +67068,7 @@
     </row>
     <row r="564" hidden="true">
       <c r="A564" t="s" s="2">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>307</v>
@@ -67208,7 +67180,7 @@
     </row>
     <row r="565" hidden="true">
       <c r="A565" t="s" s="2">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>310</v>
@@ -67320,7 +67292,7 @@
     </row>
     <row r="566" hidden="true">
       <c r="A566" t="s" s="2">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>313</v>
@@ -67434,7 +67406,7 @@
     </row>
     <row r="567" hidden="true">
       <c r="A567" t="s" s="2">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>317</v>
@@ -67548,7 +67520,7 @@
     </row>
     <row r="568" hidden="true">
       <c r="A568" t="s" s="2">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>321</v>
@@ -67662,10 +67634,10 @@
     </row>
     <row r="569" hidden="true">
       <c r="A569" t="s" s="2">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" t="s" s="2">
@@ -67688,19 +67660,19 @@
         <v>90</v>
       </c>
       <c r="K569" t="s" s="2">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="L569" t="s" s="2">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="O569" t="s" s="2">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="P569" t="s" s="2">
         <v>79</v>
@@ -67749,7 +67721,7 @@
         <v>79</v>
       </c>
       <c r="AF569" t="s" s="2">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="AG569" t="s" s="2">
         <v>80</v>

--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-document-with-sr-and-form.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-document-with-sr-and-form.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20326" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20325" uniqueCount="937">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB-Order Document with Service Request and Form</t>
+    <t>CH LAB-Order Document with ServiceRequest and Form</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,76 +57,76 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-12-16T11:38:24+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Switzerland</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>HL7 Switzerland (https://www.hl7.ch)</t>
+  </si>
+  <si>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Definition of the Bundle resource to describe the lab order document using ServiceRequest and Form.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-document</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-05-22T12:28:53+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Switzerland</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>HL7 Switzerland (https://www.hl7.ch)</t>
-  </si>
-  <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Definition of the bundle for the lab order document with ServiceRequest and Form, parent is ChOrfDocument</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>CC0-1.0</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-document</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -268,13 +268,10 @@
 </t>
   </si>
   <si>
-    <t>CH LAB-Order Document</t>
-  </si>
-  <si>
-    <t>This IG follows the IHE Scheduled Workflow (SWF) Profile: 
-An Order Filler accepts from an Order Placer a single Order that it equates to a Filler Order 
-(which is concept commonly used in HL7) or Laboratory Service Request (Concept commonly used in DICOM). 
-Consequently one CH Lab-Order Document contains one CH Lab-Order ServiceRequest which depicts one Placer Order equal one Filler Order equal one Laboratory Service Request.</t>
+    <t>CH LAB-Order Bundle with ServiceRequest and Form</t>
+  </si>
+  <si>
+    <t>A container for a collection of resources.</t>
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
@@ -373,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -512,7 +509,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -600,7 +597,7 @@
     <t>Bundle.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -757,7 +754,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -1189,7 +1186,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient}
+    <t xml:space="preserve">Patient {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient}
 </t>
   </si>
   <si>
@@ -3109,110 +3106,108 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -3404,10 +3399,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -3487,7 +3482,7 @@
         <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>80</v>
@@ -3968,7 +3963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -4540,7 +4535,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>162</v>
       </c>
@@ -4656,7 +4651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>172</v>
       </c>
@@ -4996,7 +4991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>195</v>
       </c>
@@ -5110,7 +5105,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>202</v>
       </c>
@@ -9638,7 +9633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>325</v>
       </c>
@@ -10320,7 +10315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>333</v>
       </c>
@@ -13279,7 +13274,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>81</v>
@@ -13297,7 +13292,7 @@
         <v>216</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>237</v>
@@ -42256,7 +42251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="345" hidden="true">
+    <row r="345">
       <c r="A345" t="s" s="2">
         <v>664</v>
       </c>
@@ -42938,7 +42933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="351" hidden="true">
+    <row r="351">
       <c r="A351" t="s" s="2">
         <v>671</v>
       </c>
@@ -45880,7 +45875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="377" hidden="true">
+    <row r="377">
       <c r="A377" t="s" s="2">
         <v>702</v>
       </c>
@@ -46562,7 +46557,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="383" hidden="true">
+    <row r="383">
       <c r="A383" t="s" s="2">
         <v>709</v>
       </c>
@@ -49506,7 +49501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="409" hidden="true">
+    <row r="409">
       <c r="A409" t="s" s="2">
         <v>741</v>
       </c>
@@ -50188,7 +50183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="415" hidden="true">
+    <row r="415">
       <c r="A415" t="s" s="2">
         <v>748</v>
       </c>
@@ -53130,7 +53125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="441" hidden="true">
+    <row r="441">
       <c r="A441" t="s" s="2">
         <v>780</v>
       </c>
@@ -53812,7 +53807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="447" hidden="true">
+    <row r="447">
       <c r="A447" t="s" s="2">
         <v>787</v>
       </c>
@@ -56756,7 +56751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="473" hidden="true">
+    <row r="473">
       <c r="A473" t="s" s="2">
         <v>819</v>
       </c>
@@ -57438,7 +57433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="479" hidden="true">
+    <row r="479">
       <c r="A479" t="s" s="2">
         <v>826</v>
       </c>
@@ -60382,7 +60377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="505" hidden="true">
+    <row r="505">
       <c r="A505" t="s" s="2">
         <v>857</v>
       </c>
@@ -61064,7 +61059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="511" hidden="true">
+    <row r="511">
       <c r="A511" t="s" s="2">
         <v>864</v>
       </c>
@@ -64006,7 +64001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="537" hidden="true">
+    <row r="537">
       <c r="A537" t="s" s="2">
         <v>894</v>
       </c>
@@ -64688,7 +64683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="543" hidden="true">
+    <row r="543">
       <c r="A543" t="s" s="2">
         <v>901</v>
       </c>
@@ -67750,12 +67745,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN569">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
